--- a/万橡悦府/万橡悦府.xlsx
+++ b/万橡悦府/万橡悦府.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github-Repository\BeijingNewHouse\万橡悦府\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B5BA1-E008-42AA-A53F-1EA22DDB6E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AAEFC5-470F-4866-893F-ABFE39161511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="83">
   <si>
     <t>1单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,277 @@
   </si>
   <si>
     <t>2单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>489.62万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>408.44万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>489.74万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>488.73万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>488.85万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>489.29万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>409.94万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>491.51万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490.62万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>491.07万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496.28万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496.73万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411.44万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>498.50万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>493.28万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492.39万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>497.62万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88.93㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>88.64㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>493.12万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>493.56万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490.18万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>495.34万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410.26万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>491.95万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.45万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89.11㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88.81㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>499.46万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.23万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>499.91万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.67万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501.69万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>414.10万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496.45万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500.80万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>495.56万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89.01㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492.45万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492.90万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.01万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412.59万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>389.68万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>495.79万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>493.78万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.90万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490.55万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>491.00万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412.28万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492.78万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.17万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>491.89万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89.04㎡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,15 +375,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -136,19 +413,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -172,28 +436,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,325 +902,917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="19"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>11</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>3</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="D19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>